--- a/data/food.xlsx
+++ b/data/food.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\N3P\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\N3PNOVO\ONRENDER\N3PNOVO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084D500-88EE-48B9-A256-FB15C3BF795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A4194C-94DA-45F5-BD99-93043FC7D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1645</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6630" uniqueCount="3279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6641" uniqueCount="3283">
   <si>
     <t>identificador</t>
   </si>
@@ -9860,6 +9873,18 @@
   </si>
   <si>
     <t>MANIA DE MINAS</t>
+  </si>
+  <si>
+    <t>Farinha Branca</t>
+  </si>
+  <si>
+    <t>Hipercalorico</t>
+  </si>
+  <si>
+    <t>Suco de Uva</t>
+  </si>
+  <si>
+    <t>hipercalorico</t>
   </si>
 </sst>
 </file>
@@ -9929,7 +9954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -10236,10 +10261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1655"/>
+  <dimension ref="A1:O1658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1623" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1656" sqref="C1656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77336,6 +77364,151 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1656" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <f>A1655+1</f>
+        <v>3218</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1656" t="str">
+        <f>B1656</f>
+        <v>Farinha Branca</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E1656">
+        <v>20</v>
+      </c>
+      <c r="F1656" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G1656">
+        <v>73</v>
+      </c>
+      <c r="H1656">
+        <v>15.2</v>
+      </c>
+      <c r="I1656">
+        <v>0</v>
+      </c>
+      <c r="J1656">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K1656">
+        <v>0.2</v>
+      </c>
+      <c r="L1656">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M1656">
+        <v>0</v>
+      </c>
+      <c r="N1656">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O1656">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <f t="shared" ref="A1657:A1658" si="0">A1656+1</f>
+        <v>3219</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E1657">
+        <v>90</v>
+      </c>
+      <c r="F1657" t="s">
+        <v>3176</v>
+      </c>
+      <c r="G1657">
+        <v>347</v>
+      </c>
+      <c r="H1657">
+        <v>57</v>
+      </c>
+      <c r="I1657">
+        <v>6.3</v>
+      </c>
+      <c r="J1657">
+        <v>24</v>
+      </c>
+      <c r="K1657">
+        <v>2.5</v>
+      </c>
+      <c r="L1657">
+        <v>0.8</v>
+      </c>
+      <c r="M1657">
+        <v>0</v>
+      </c>
+      <c r="N1657">
+        <v>0</v>
+      </c>
+      <c r="O1657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <f t="shared" si="0"/>
+        <v>3220</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>2716</v>
+      </c>
+      <c r="E1658">
+        <v>200</v>
+      </c>
+      <c r="F1658" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G1658">
+        <v>92</v>
+      </c>
+      <c r="H1658">
+        <v>23</v>
+      </c>
+      <c r="I1658">
+        <v>23</v>
+      </c>
+      <c r="J1658">
+        <v>0</v>
+      </c>
+      <c r="K1658">
+        <v>0</v>
+      </c>
+      <c r="L1658">
+        <v>0</v>
+      </c>
+      <c r="M1658">
+        <v>0</v>
+      </c>
+      <c r="N1658">
+        <v>0</v>
+      </c>
+      <c r="O1658">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O1645" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O1655">

--- a/data/food.xlsx
+++ b/data/food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\N3PNOVO\ONRENDER\N3PNOVO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A4194C-94DA-45F5-BD99-93043FC7D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B2654-D69F-4910-8FB5-21BE0F43BAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="2490" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10267,7 +10267,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B1623" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1656" sqref="C1656"/>
+      <selection pane="bottomRight" activeCell="B1643" sqref="B1642:B1643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
